--- a/biology/Médecine/Louis_Stromeyer/Louis_Stromeyer.xlsx
+++ b/biology/Médecine/Louis_Stromeyer/Louis_Stromeyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georg Friedrich Louis Stromeyer (né le 6 mars 1804 à Hanovre – mort le 15 juin 1876 dans la même localité) est un chirurgien allemand. Il est le fils de Christian Friedrich Stromeyer (de) (1761–1824)[1].
-Stromeyer est considéré comme un pionnier en orthopédie et en chirurgie orthopédique. Il a également pratiqué la chirurgie maxillo-faciale, pour laquelle il a créé le crochet Stromeyer, une pièce d'équipement utilisée lors des fractures de l'arcade zygomatique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georg Friedrich Louis Stromeyer (né le 6 mars 1804 à Hanovre – mort le 15 juin 1876 dans la même localité) est un chirurgien allemand. Il est le fils de Christian Friedrich Stromeyer (de) (1761–1824).
+Stromeyer est considéré comme un pionnier en orthopédie et en chirurgie orthopédique. Il a également pratiqué la chirurgie maxillo-faciale, pour laquelle il a créé le crochet Stromeyer, une pièce d'équipement utilisée lors des fractures de l'arcade zygomatique.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Stromeyer étudie la médecine à partir de 1823 à l'université de Göttingen. Il sera membre du Corps Hannovera Göttingen. Il obtient son doctorat à Berlin en 1826.
-Après ses études, il voyage à travers l'Europe, retournant à Hanovre en 1828 où il enseigne la chirurgie et ouvre un institut d'orthopédie. De 1838 à 1840, il est professeur de chirurgie à l'université Friedrich-Alexander d'Erlangen-Nuremberg. Il enseignera par la suite à l'université Louis-et-Maximilien de Munich (1841–1842), l'université de Fribourg-en-Brisgau (1842–1848) et l'université Christian Albrecht de Kiel[1].
-Au cours de sa carrière, il sera Generalstabsarzt pour l'armée de Schleswig-Holstein et de Hanovre[1]. Au cours de la guerre franco-allemande de 1870, il est Consultierender Generalarzt (de) lors de la bataille de Sedan[3].
-En 1831, il effectue la première ténotomie (en) sous-cutanée du tendon d'Achille sur un pied déformé. Il participera au développement de la technique en Angleterre via William John Little (1810–1894)[1].
+Après ses études, il voyage à travers l'Europe, retournant à Hanovre en 1828 où il enseigne la chirurgie et ouvre un institut d'orthopédie. De 1838 à 1840, il est professeur de chirurgie à l'université Friedrich-Alexander d'Erlangen-Nuremberg. Il enseignera par la suite à l'université Louis-et-Maximilien de Munich (1841–1842), l'université de Fribourg-en-Brisgau (1842–1848) et l'université Christian Albrecht de Kiel.
+Au cours de sa carrière, il sera Generalstabsarzt pour l'armée de Schleswig-Holstein et de Hanovre. Au cours de la guerre franco-allemande de 1870, il est Consultierender Generalarzt (de) lors de la bataille de Sedan.
+En 1831, il effectue la première ténotomie (en) sous-cutanée du tendon d'Achille sur un pied déformé. Il participera au développement de la technique en Angleterre via William John Little (1810–1894).
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Beiträge zur operativen Orthopädik; oder, Erfahrungen über die subcutane Durchschneidung verkürzter Muskeln und deren Sehnen, 1838.
 (de) Handbuch der Chirurgie, 1844.
